--- a/core/utils/excel/page_base.xlsx
+++ b/core/utils/excel/page_base.xlsx
@@ -50,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,67 +110,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +124,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -161,14 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -177,6 +147,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -201,6 +179,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,37 +221,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,139 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,30 +416,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +459,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -506,10 +491,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,130 +527,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,7 +979,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1026,7 +1026,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
-      <formula1>"NAME, ID, CSS, XPATH"</formula1>
+      <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/core/utils/excel/page_base.xlsx
+++ b/core/utils/excel/page_base.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgenyp\Cellenium\core\utils\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B0075B-4175-4D8A-8024-5F7B66974DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA74F96-9DFB-4AA8-8CE3-F27503D233DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14610" windowHeight="8085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
-    <sheet name="jira" sheetId="2" r:id="rId2"/>
+    <sheet name="Jira" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -423,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A7B8D-CE59-4157-B9D1-49F6C480ACE5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/core/utils/excel/page_base.xlsx
+++ b/core/utils/excel/page_base.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgenyp\Cellenium\core\utils\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA74F96-9DFB-4AA8-8CE3-F27503D233DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD68B84-4433-49C3-9803-AE008AD0BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14610" windowHeight="8085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
     <sheet name="Jira" sheetId="2" r:id="rId2"/>
+    <sheet name="ST" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -102,18 +103,49 @@
   </si>
   <si>
     <t>log-work-submit</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>login:usernameInput</t>
+  </si>
+  <si>
+    <t>login:passwordInput</t>
+  </si>
+  <si>
+    <t>login:loginCommand</t>
+  </si>
+  <si>
+    <t>topMenuCallsCommandButton:button_text</t>
+  </si>
+  <si>
+    <t>calls</t>
+  </si>
+  <si>
+    <t>callsPanel:mediaPlayerTagsForm:callAudio</t>
+  </si>
+  <si>
+    <t>media_panel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -143,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A7B8D-CE59-4157-B9D1-49F6C480ACE5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,4 +636,100 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63154E05-E59B-4B56-9529-63FF197AADBD}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{0435B6DB-B61B-45BA-86D9-581B6E0B8C02}">
+      <formula1>"ID, NAME, CSS, XPATH"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/core/utils/excel/page_base.xlsx
+++ b/core/utils/excel/page_base.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgenyp\Cellenium\core\utils\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD68B84-4433-49C3-9803-AE008AD0BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB7EBF-1F3F-463B-BA18-3F33AA365A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
     <sheet name="Jira" sheetId="2" r:id="rId2"/>
-    <sheet name="ST" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -103,49 +102,18 @@
   </si>
   <si>
     <t>log-work-submit</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>login:usernameInput</t>
-  </si>
-  <si>
-    <t>login:passwordInput</t>
-  </si>
-  <si>
-    <t>login:loginCommand</t>
-  </si>
-  <si>
-    <t>topMenuCallsCommandButton:button_text</t>
-  </si>
-  <si>
-    <t>calls</t>
-  </si>
-  <si>
-    <t>callsPanel:mediaPlayerTagsForm:callAudio</t>
-  </si>
-  <si>
-    <t>media_panel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,10 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -515,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A7B8D-CE59-4157-B9D1-49F6C480ACE5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,100 +603,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63154E05-E59B-4B56-9529-63FF197AADBD}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{0435B6DB-B61B-45BA-86D9-581B6E0B8C02}">
-      <formula1>"ID, NAME, CSS, XPATH"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>